--- a/code/datasets/dataset_rgb/newfoilder/hist_data_with_density_noisy2.xlsx
+++ b/code/datasets/dataset_rgb/newfoilder/hist_data_with_density_noisy2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\BaiduSyncdisk\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\BaiduSyncdisk\文献参考\组图2\SI\DRS-.io\code\datasets\dataset_rgb\newfoilder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE8E460-F2F9-4994-9BCB-48E7D7BD2D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,13 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -470,23 +470,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -509,7 +506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.89179272487154282</v>
       </c>
@@ -532,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>12</v>
       </c>
@@ -555,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -578,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>12</v>
       </c>
@@ -601,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>12</v>
       </c>
@@ -624,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -647,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>12</v>
       </c>
@@ -670,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -693,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -716,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -739,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -762,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.9</v>
       </c>
@@ -785,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.9</v>
       </c>
@@ -808,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10.89469973299374</v>
       </c>
@@ -831,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.89602473238362379</v>
       </c>
@@ -854,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6.3588978416914621</v>
       </c>
@@ -877,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1.0009846295720231</v>
       </c>
@@ -900,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>11.906534989840409</v>
       </c>
@@ -923,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>12</v>
       </c>
@@ -946,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>12</v>
       </c>
@@ -969,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>12</v>
       </c>
@@ -992,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>12</v>
       </c>
@@ -1015,7 +1012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1038,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1061,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>12.15009720823738</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>12.82735736708508</v>
       </c>
@@ -1130,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6.3622402368927498</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.77418259563042557</v>
       </c>
@@ -1176,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6.2567214386822876</v>
       </c>
@@ -1199,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.866249463207165</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5.9651238278440024</v>
       </c>
@@ -1245,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5.9074370695345726</v>
       </c>
@@ -1268,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>0.9</v>
       </c>
@@ -1314,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>12</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>12</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>12</v>
       </c>
@@ -1406,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>0.9</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>12</v>
       </c>
@@ -1475,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>6</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>6</v>
       </c>
@@ -1544,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>0.9</v>
       </c>
@@ -1567,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>0.9</v>
       </c>
@@ -1590,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>0.9</v>
       </c>
@@ -1613,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>6.3924962492326003</v>
       </c>
@@ -1636,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>0.86405572324301427</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>11.385863805998429</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>5.7624863713681531</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>11.539630550772561</v>
       </c>
@@ -1728,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>12</v>
       </c>
@@ -1751,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>12</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>6</v>
       </c>
@@ -1797,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>12</v>
       </c>
@@ -1820,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1843,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>12</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1912,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>0.9</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>0.9</v>
       </c>
@@ -1958,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0.9</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>0.9</v>
       </c>
@@ -2004,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>12.387615687610401</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>0.88754704118358085</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>6.3466067748629884</v>
       </c>
@@ -2073,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>12.731505068284569</v>
       </c>
@@ -2096,7 +2093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>11.24059778793294</v>
       </c>
@@ -2119,17 +2116,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>12</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>184</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>128</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>227</v>
       </c>
       <c r="E72">
@@ -2142,17 +2139,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>6</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>152</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>108</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>167</v>
       </c>
       <c r="E73">
@@ -2165,17 +2162,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>12</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>130</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>63</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>143</v>
       </c>
       <c r="E74">
@@ -2188,17 +2185,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>12</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>139</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>81</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>142</v>
       </c>
       <c r="E75">
@@ -2211,17 +2208,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>6</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>90</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>70</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>98</v>
       </c>
       <c r="E76">
@@ -2234,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>10.356665104483589</v>
       </c>
@@ -2257,17 +2254,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>12</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>162</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>113</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>231</v>
       </c>
       <c r="E78">
@@ -2280,17 +2277,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>12</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>160</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>105</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79">
         <v>224</v>
       </c>
       <c r="E79">
@@ -2303,17 +2300,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>6</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>162</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>120</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80">
         <v>220</v>
       </c>
       <c r="E80">
@@ -2326,17 +2323,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>12</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>147</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>114</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>219</v>
       </c>
       <c r="E81">
@@ -2349,17 +2346,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>6</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>130</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>121</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>174</v>
       </c>
       <c r="E82">
@@ -2372,7 +2369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>11.981812543243599</v>
       </c>
@@ -2395,17 +2392,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>12</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>118</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>107</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>175</v>
       </c>
       <c r="E84">
@@ -2418,7 +2415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>11.64743009756033</v>
       </c>
@@ -2441,7 +2438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>5.4596490789320198</v>
       </c>
@@ -2464,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>12.32093423287832</v>
       </c>
@@ -2487,7 +2484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>12</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>6</v>
       </c>
@@ -2533,7 +2530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>5.617099799072113</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>12.936134216168931</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>6.4123362737086342</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>12</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>12</v>
       </c>
@@ -2648,7 +2645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>6</v>
       </c>
@@ -2671,7 +2668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>6</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>12</v>
       </c>
@@ -2717,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>6</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>0.9</v>
       </c>
@@ -2763,7 +2760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>12</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>12</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>6</v>
       </c>
@@ -2832,7 +2829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>6</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>6.3034273632362741</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>12.18326161387748</v>
       </c>
@@ -2901,7 +2898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>0.8178726002441602</v>
       </c>
@@ -2924,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>12.507713949105691</v>
       </c>
@@ -2947,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>10.432053878668571</v>
       </c>
@@ -2970,7 +2967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2993,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>12</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>12</v>
       </c>
@@ -3039,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3062,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>12</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>0.9</v>
       </c>
@@ -3109,7 +3106,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G117">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G117">
     <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
